--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_86.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09571428571428571</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07203557312252964</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:21.410000', '0:00:24.830000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.360000', '0:00:19.540000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_81</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1029776674937965</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:dim7', 'Ab', 'F:7', 'Bb:min7']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1256127450980392</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'F/5', 'D:7', 'G:min7']]</t>
+          <t>[['E/5', 'B', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.64, 19.16)]</t>
+          <t>[['A', 'E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.56, 12.13)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:30.035034', '0:00:51.200022')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:19.000294', '0:00:36.287551')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1245901639344262</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:43.540000', '0:01:00')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>isophonics_77</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1819148936170213</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['F#', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38), (250.3, 252.76)]</t>
+          <t>[['B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.24, 18.88), (6.62, 12.78)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:21.840737', '0:00:25.474660')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:03.292358', '0:01:10.397664')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_117</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1308485329103886</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'G']]</t>
-        </is>
+          <t>isophonics_209</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_245</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.150997150997151</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>[['D', 'E', 'B:min', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.110561, 6.213665)]</t>
+          <t>[['A', 'B', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.656213, 4.461483)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:38.891746', '0:00:53.845396')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:43.802561', '0:00:52.626144')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5), (61.32, 63.7)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.34, 59.34), (118.44, 121.68)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_16</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1587701612903226</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj6', 'D:maj6', 'D:maj6/5', 'D:maj6', 'D:maj6/5']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3580562659846547</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj6', 'A:maj6', 'A:maj6', 'A:maj6', 'A:maj6']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(80.688034, 87.266961)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(142.31, 147.62)]</t>
+          <t>[('0:00:10.953139', '0:00:28.356495')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5052631578947369</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.727609, 10.72399)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D/b7']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(29.965374, 35.781972)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.979342, 16.701519)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3166666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.2, 20.1)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94), (9.4, 16.5)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58), (282.12, 284.72)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['F#:maj', 'C#:7/F', 'F#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (35.14, 39.9), (13.42, 19.5)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42), (34.38, 38.52), (1.26, 5.92)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(28.64, 67.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(47.02, 61.58)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
